--- a/excel data/predator_parameter_201216.xlsx
+++ b/excel data/predator_parameter_201216.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kieran_murphy_utas_edu_au/Documents/Documents/R Projects/Prydz_Bay_mizer/excel data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FC3B237A2968BD6C68AC27F3956EF1CC89899263" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B44314E-1C67-499D-A0E3-96DA7C883B4C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predators_edited" sheetId="3" r:id="rId1"/>
     <sheet name="predators_original" sheetId="2" r:id="rId2"/>
     <sheet name="readme" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -278,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -759,16 +776,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -785,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -802,7 +822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -819,7 +839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -833,7 +853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -847,7 +867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -858,7 +878,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -875,7 +895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -886,7 +906,7 @@
         <v>8.4099999999999995E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -894,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -902,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -919,7 +939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -936,7 +956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -950,7 +970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -964,7 +984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -975,7 +995,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -992,7 +1012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1023,7 @@
         <v>2.0599999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1136,7 +1156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +1249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1321,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1332,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1371,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1415,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +1449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1460,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1487,7 +1507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1549,7 +1569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1563,7 +1583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1608,7 @@
         <v>8.7499999999999999E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +1666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -1749,7 +1769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1780,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -1771,7 +1791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1782,7 +1802,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>3.992248062015504E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1824,7 @@
         <v>1.1051610410374609E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +1840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -1834,7 +1854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -1862,7 +1882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -1890,7 +1910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>2.7134453781512604E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>5.5683906822273132E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -1920,7 +1940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -1928,7 +1948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +1962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -1970,7 +1990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +2004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -1998,7 +2018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2034,7 +2054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +2062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2073,7 @@
         <v>7279.39142461964</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -2113,7 +2133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2124,7 +2144,7 @@
         <v>2.2281427652400702E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2140,7 +2160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -2151,7 +2171,7 @@
         <v>49358.523459410295</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -2163,7 +2183,7 @@
         <v>412.91666666666669</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2194,7 @@
         <v>412.91666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2206,7 @@
         <v>71.833333333333329</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2217,7 @@
         <v>412.91666666666669</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>6.7451049369122232E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2230,7 +2250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -2238,7 +2258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -2249,7 +2269,7 @@
         <v>212989.41354394218</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -2261,7 +2281,7 @@
         <v>4191.25</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>4191.25</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2304,7 @@
         <v>275.42857142857144</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>4191.25</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -2320,7 +2340,7 @@
         <v>3.9264756762480008E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -2336,7 +2356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>33</v>
       </c>
@@ -2347,7 +2367,7 @@
         <v>256153.84615384619</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
@@ -2358,7 +2378,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -2369,7 +2389,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -2380,7 +2400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>5.454545454545455E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -2424,7 +2444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>51</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>103000000</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -2485,7 +2505,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>51</v>
       </c>
@@ -2493,7 +2513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>51</v>
       </c>
@@ -2504,7 +2524,7 @@
         <v>1.1553398058252427E-8</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -2515,7 +2535,7 @@
         <v>3.3980582524271841E-9</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -2523,7 +2543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -2531,7 +2551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>53</v>
       </c>
@@ -2559,7 +2579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>53</v>
       </c>
@@ -2570,7 +2590,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>53</v>
       </c>
@@ -2584,7 +2604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>53</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -2603,7 +2623,7 @@
         <v>2.5869565217391303E-8</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>53</v>
       </c>
@@ -2614,7 +2634,7 @@
         <v>2.5869565217391303E-8</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>53</v>
       </c>
@@ -2630,7 +2650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>56</v>
       </c>
@@ -2644,7 +2664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -2683,7 +2703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>56</v>
       </c>
@@ -2691,7 +2711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>5.2888888888888884E-8</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>56</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>1.5555555555555554E-8</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -2721,7 +2741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -2729,7 +2749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>54</v>
       </c>
@@ -2743,7 +2763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>54</v>
       </c>
@@ -2757,7 +2777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>54</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>54</v>
       </c>
@@ -2782,7 +2802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -2801,7 +2821,7 @@
         <v>4.4074074074074075E-8</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>54</v>
       </c>
@@ -2812,7 +2832,7 @@
         <v>1.2962962962962961E-8</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>54</v>
       </c>
@@ -2820,7 +2840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -2842,7 +2862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -2856,7 +2876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -2867,7 +2887,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -2881,7 +2901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -2889,7 +2909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>55</v>
       </c>
@@ -2900,7 +2920,7 @@
         <v>1.9833333333333332E-7</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -2911,7 +2931,7 @@
         <v>5.8333333333333333E-8</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>55</v>
       </c>
@@ -2919,7 +2939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>55</v>
       </c>
@@ -2927,7 +2947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -2944,7 +2964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +2975,7 @@
         <v>55000000</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -2966,7 +2986,7 @@
         <v>55000000</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -2977,7 +2997,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -2996,7 +3016,7 @@
         <v>2.2684931506849315E-5</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3027,7 @@
         <v>8.4219178082191776E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -3051,7 +3071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3082,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -3076,7 +3096,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -3095,7 +3115,7 @@
         <v>1.7922908925277168</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>0.35037210374566341</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -3114,7 +3134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -3122,7 +3142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -3172,7 +3192,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -3180,7 +3200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -3194,7 +3214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -3238,7 +3258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -3252,7 +3272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -3263,7 +3283,7 @@
         <v>1283000</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -3277,7 +3297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -3299,7 +3319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -3313,7 +3333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -3329,7 +3349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -3343,7 +3363,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -3357,7 +3377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +3402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +3410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3424,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -3415,7 +3435,7 @@
         <v>1.0716285924834193E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -3423,7 +3443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -3442,7 +3462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,16 +3470,16 @@
       <selection pane="bottomLeft" activeCell="C141" sqref="A1:E226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3493,7 +3513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +3530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3538,7 +3558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3566,7 +3586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3597,7 @@
         <v>8.4099999999999995E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3585,7 +3605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3593,7 +3613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3627,7 +3647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3641,7 +3661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3655,7 +3675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3686,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3683,7 +3703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3714,7 @@
         <v>2.0599999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3702,7 +3722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.25" customHeight="1">
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3727,7 +3747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +3761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3769,7 +3789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3783,7 +3803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3797,7 +3817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3811,7 +3831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3827,7 +3847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3844,7 +3864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3861,7 +3881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3875,7 +3895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3889,7 +3909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3903,7 +3923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3934,7 +3954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3942,7 +3962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +3970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3967,7 +3987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3981,7 +4001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3992,7 +4012,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -4003,7 +4023,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4017,7 +4037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4031,7 +4051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -4042,7 +4062,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -4050,7 +4070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -4058,7 +4078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4092,7 +4112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4106,7 +4126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -4120,7 +4140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4151,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -4148,7 +4168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -4162,7 +4182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -4170,7 +4190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -4178,7 +4198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4195,7 +4215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +4232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -4226,7 +4246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -4240,7 +4260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -4254,7 +4274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -4268,7 +4288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -4279,7 +4299,7 @@
         <v>8.7499999999999999E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -4295,7 +4315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -4323,7 +4343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4337,7 +4357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4365,7 +4385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4379,7 +4399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4393,7 +4413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4401,7 +4421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4409,7 +4429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4440,7 +4460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -4451,7 +4471,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4462,7 +4482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4473,7 +4493,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4484,7 +4504,7 @@
         <v>3.992248062015504E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4495,7 +4515,7 @@
         <v>1.1051610410374609E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4503,7 +4523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4511,7 +4531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -4525,7 +4545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -4539,7 +4559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -4553,7 +4573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -4567,7 +4587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +4601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -4592,7 +4612,7 @@
         <v>2.7134453781512604E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -4603,7 +4623,7 @@
         <v>5.5683906822273132E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -4611,7 +4631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -4619,7 +4639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -4647,7 +4667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -4661,7 +4681,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -4675,7 +4695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -4689,7 +4709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -4703,7 +4723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -4717,7 +4737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -4725,7 +4745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -4733,7 +4753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -4744,7 +4764,7 @@
         <v>7279.39142461964</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -4756,7 +4776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -4767,7 +4787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -4779,7 +4799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -4790,7 +4810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -4804,7 +4824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -4815,7 +4835,7 @@
         <v>2.2281427652400702E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -4823,7 +4843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -4831,7 +4851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4842,7 +4862,7 @@
         <v>49358.523459410295</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -4854,7 +4874,7 @@
         <v>412.91666666666669</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -4865,7 +4885,7 @@
         <v>412.91666666666669</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -4877,7 +4897,7 @@
         <v>71.833333333333329</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -4888,7 +4908,7 @@
         <v>412.91666666666669</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -4902,7 +4922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -4913,7 +4933,7 @@
         <v>6.7451049369122232E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -4921,7 +4941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -4929,7 +4949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -4940,7 +4960,7 @@
         <v>212989.41354394218</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -4952,7 +4972,7 @@
         <v>4191.25</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -4963,7 +4983,7 @@
         <v>4191.25</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -4975,7 +4995,7 @@
         <v>275.42857142857144</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -4986,7 +5006,7 @@
         <v>4191.25</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -5000,7 +5020,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -5011,7 +5031,7 @@
         <v>3.9264756762480008E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -5027,7 +5047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>33</v>
       </c>
@@ -5038,7 +5058,7 @@
         <v>256153.84615384619</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
@@ -5049,7 +5069,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -5060,7 +5080,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -5071,7 +5091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -5082,7 +5102,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -5096,7 +5116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -5107,7 +5127,7 @@
         <v>5.454545454545455E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -5123,7 +5143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -5137,7 +5157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>51</v>
       </c>
@@ -5151,7 +5171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -5162,7 +5182,7 @@
         <v>103000000</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -5176,7 +5196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>51</v>
       </c>
@@ -5184,7 +5204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>51</v>
       </c>
@@ -5195,7 +5215,7 @@
         <v>1.1553398058252427E-8</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -5206,7 +5226,7 @@
         <v>3.3980582524271841E-9</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -5214,7 +5234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -5222,7 +5242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -5236,7 +5256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>53</v>
       </c>
@@ -5250,7 +5270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>53</v>
       </c>
@@ -5261,7 +5281,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>53</v>
       </c>
@@ -5275,7 +5295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>53</v>
       </c>
@@ -5283,7 +5303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -5294,7 +5314,7 @@
         <v>2.5869565217391303E-8</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>53</v>
       </c>
@@ -5305,7 +5325,7 @@
         <v>2.5869565217391303E-8</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -5313,7 +5333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>53</v>
       </c>
@@ -5321,7 +5341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>56</v>
       </c>
@@ -5335,7 +5355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -5349,7 +5369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -5360,7 +5380,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -5374,7 +5394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>56</v>
       </c>
@@ -5382,7 +5402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -5393,7 +5413,7 @@
         <v>5.2888888888888884E-8</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>56</v>
       </c>
@@ -5404,7 +5424,7 @@
         <v>1.5555555555555554E-8</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -5412,7 +5432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -5420,7 +5440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>54</v>
       </c>
@@ -5434,7 +5454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>54</v>
       </c>
@@ -5448,7 +5468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>54</v>
       </c>
@@ -5459,7 +5479,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>54</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>54</v>
       </c>
@@ -5481,7 +5501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -5492,7 +5512,7 @@
         <v>4.4074074074074075E-8</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>54</v>
       </c>
@@ -5503,7 +5523,7 @@
         <v>1.2962962962962961E-8</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>54</v>
       </c>
@@ -5511,7 +5531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>54</v>
       </c>
@@ -5519,7 +5539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -5533,7 +5553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -5547,7 +5567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -5558,7 +5578,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -5572,7 +5592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -5580,7 +5600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>55</v>
       </c>
@@ -5591,7 +5611,7 @@
         <v>1.9833333333333332E-7</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -5602,7 +5622,7 @@
         <v>5.8333333333333333E-8</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>55</v>
       </c>
@@ -5610,7 +5630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>55</v>
       </c>
@@ -5618,7 +5638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -5635,7 +5655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -5646,7 +5666,7 @@
         <v>55000000</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -5657,7 +5677,7 @@
         <v>55000000</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -5668,7 +5688,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -5676,7 +5696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -5687,7 +5707,7 @@
         <v>2.2684931506849315E-5</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -5698,7 +5718,7 @@
         <v>8.4219178082191776E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -5706,7 +5726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -5714,7 +5734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +5748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -5742,7 +5762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -5753,7 +5773,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -5767,7 +5787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -5775,7 +5795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -5786,7 +5806,7 @@
         <v>1.7922908925277168</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -5797,7 +5817,7 @@
         <v>0.35037210374566341</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -5805,7 +5825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -5813,7 +5833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -5827,7 +5847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -5841,7 +5861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -5852,7 +5872,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -5863,7 +5883,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -5871,7 +5891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -5885,7 +5905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -5899,7 +5919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -5907,7 +5927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -5915,7 +5935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -5929,7 +5949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -5943,7 +5963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -5954,7 +5974,7 @@
         <v>1283000</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -5968,7 +5988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -5976,7 +5996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -5990,7 +6010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -6004,7 +6024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -6012,7 +6032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -6020,7 +6040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -6034,7 +6054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -6048,7 +6068,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -6059,7 +6079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -6073,7 +6093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -6081,7 +6101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -6095,7 +6115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -6106,7 +6126,7 @@
         <v>1.0716285924834193E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -6114,7 +6134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -6134,21 +6154,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
